--- a/src/main/resources/easyexcel/out/easy_excel_export_custome.xlsx
+++ b/src/main/resources/easyexcel/out/easy_excel_export_custome.xlsx
@@ -121,7 +121,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2020-11-04 11:23:16</t>
+          <t>2021-12-29 10:09:21</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -136,7 +136,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-11-04 11:23:16</t>
+          <t>2021-12-29 10:09:21</t>
         </is>
       </c>
       <c r="C3" t="n">
